--- a/Onto_Ambientes/Ontologia_V1_Projeto_Ambientes.xlsx
+++ b/Onto_Ambientes/Ontologia_V1_Projeto_Ambientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_Ambientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE562B3-4F46-4B5B-ACD1-98CB05BA8A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88EFF0D-1FEB-4614-8685-5D290295850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="FatosIn" sheetId="28" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FatosIn!$E$1:$E$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FatosIn!$E$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="90">
   <si>
     <t>Escopo</t>
   </si>
@@ -102,9 +102,6 @@
     <t>José Luis Menegotto - Escola Politécnica da UFRJ</t>
   </si>
   <si>
-    <t>Espacial</t>
-  </si>
-  <si>
     <t>Data.Hora</t>
   </si>
   <si>
@@ -129,15 +126,6 @@
     <t>descrição</t>
   </si>
   <si>
-    <t>OST_MEPSystemZone</t>
-  </si>
-  <si>
-    <t>OST_MEPSpaces</t>
-  </si>
-  <si>
-    <t>OST_HVAC_Zones</t>
-  </si>
-  <si>
     <t>OST_Areas</t>
   </si>
   <si>
@@ -147,12 +135,6 @@
     <t>ifcZone</t>
   </si>
   <si>
-    <t>ifcSpatialZone</t>
-  </si>
-  <si>
-    <t>ifcSpace</t>
-  </si>
-  <si>
     <t>espa:</t>
   </si>
   <si>
@@ -162,48 +144,15 @@
     <t>Distribuição.espacial.do.projeto</t>
   </si>
   <si>
-    <t>Sala1</t>
-  </si>
-  <si>
-    <t>Hall1</t>
-  </si>
-  <si>
-    <t>Banheiro1</t>
-  </si>
-  <si>
-    <t>Banheiro2</t>
-  </si>
-  <si>
-    <t>Banheiro3</t>
-  </si>
-  <si>
-    <t>Quarto1</t>
-  </si>
-  <si>
-    <t>Quarto2</t>
-  </si>
-  <si>
-    <t>Quarto3</t>
-  </si>
-  <si>
-    <t>Quarto4</t>
-  </si>
-  <si>
     <t>nome</t>
   </si>
   <si>
     <t>código</t>
   </si>
   <si>
-    <t>"Residencial"</t>
-  </si>
-  <si>
     <t>tema</t>
   </si>
   <si>
-    <t>Cozinha1</t>
-  </si>
-  <si>
     <t>"A101"</t>
   </si>
   <si>
@@ -234,127 +183,133 @@
     <t>"A110"</t>
   </si>
   <si>
-    <t>"OST_Rooms"</t>
-  </si>
-  <si>
-    <t>"Hall1"</t>
-  </si>
-  <si>
-    <t>"Sala1"</t>
-  </si>
-  <si>
-    <t>"Quarto1"</t>
-  </si>
-  <si>
-    <t>"Quarto2"</t>
-  </si>
-  <si>
-    <t>"Quarto3"</t>
-  </si>
-  <si>
     <t>"Quarto4"</t>
   </si>
   <si>
-    <t>"Cozinha1"</t>
-  </si>
-  <si>
-    <t>"Banheiro1"</t>
-  </si>
-  <si>
-    <t>"Banheiro2"</t>
-  </si>
-  <si>
-    <t>"Banheiro3"</t>
-  </si>
-  <si>
-    <t>Ext.Residencial</t>
-  </si>
-  <si>
-    <t>Estacionamento1</t>
-  </si>
-  <si>
-    <t>"OST_Areas"</t>
-  </si>
-  <si>
-    <t>Mep.Residencial</t>
-  </si>
-  <si>
-    <t>Int.Residencial</t>
-  </si>
-  <si>
-    <t>"OST_MEPSpaces"</t>
-  </si>
-  <si>
-    <t>categoria</t>
-  </si>
-  <si>
-    <t>M.Hall1</t>
-  </si>
-  <si>
-    <t>M.Sala1</t>
-  </si>
-  <si>
-    <t>M.Quarto1</t>
-  </si>
-  <si>
-    <t>M.Quarto2</t>
-  </si>
-  <si>
-    <t>M.Quarto3</t>
-  </si>
-  <si>
-    <t>M.Quarto4</t>
-  </si>
-  <si>
-    <t>Estacionamento2</t>
-  </si>
-  <si>
-    <t>"M102"</t>
-  </si>
-  <si>
-    <t>"M103"</t>
-  </si>
-  <si>
-    <t>"M101"</t>
-  </si>
-  <si>
-    <t>"M104"</t>
-  </si>
-  <si>
-    <t>"M105"</t>
-  </si>
-  <si>
-    <t>"M106"</t>
-  </si>
-  <si>
     <t>"E101"</t>
   </si>
   <si>
     <t>"E102"</t>
   </si>
   <si>
-    <t>"Estacionamento2"</t>
-  </si>
-  <si>
-    <t>"Estacionamento1"</t>
-  </si>
-  <si>
-    <t>"M.Hall1"</t>
-  </si>
-  <si>
-    <t>"M.Sala1"</t>
-  </si>
-  <si>
-    <t>"M.Quarto1"</t>
-  </si>
-  <si>
-    <t>"M.Quarto2"</t>
-  </si>
-  <si>
-    <t>"M.Quarto3"</t>
-  </si>
-  <si>
-    <t>"M.Quarto4"</t>
+    <t>Apto.101</t>
+  </si>
+  <si>
+    <t>Apartamento</t>
+  </si>
+  <si>
+    <t>é.dentro.de</t>
+  </si>
+  <si>
+    <t>"APTO.101"</t>
+  </si>
+  <si>
+    <t>"Apartamento 101"</t>
+  </si>
+  <si>
+    <t>Ext.Habitacional</t>
+  </si>
+  <si>
+    <t>Quarto.01</t>
+  </si>
+  <si>
+    <t>Quarto.02</t>
+  </si>
+  <si>
+    <t>Quarto.03</t>
+  </si>
+  <si>
+    <t>Quarto.04</t>
+  </si>
+  <si>
+    <t>Cozinha.01</t>
+  </si>
+  <si>
+    <t>Banheiro.01</t>
+  </si>
+  <si>
+    <t>Banheiro.02</t>
+  </si>
+  <si>
+    <t>Banheiro.03</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Hall.01</t>
+  </si>
+  <si>
+    <t>Sala.01</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>Quarto</t>
+  </si>
+  <si>
+    <t>Cozinha</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Banheiro</t>
+  </si>
+  <si>
+    <t>"Banheiro 01"</t>
+  </si>
+  <si>
+    <t>"Banheiro 02"</t>
+  </si>
+  <si>
+    <t>"Banheiro 03"</t>
+  </si>
+  <si>
+    <t>"Cozinha 01"</t>
+  </si>
+  <si>
+    <t>"Quarto 03"</t>
+  </si>
+  <si>
+    <t>"Quarto 02"</t>
+  </si>
+  <si>
+    <t>"Quarto 01"</t>
+  </si>
+  <si>
+    <t>"Sala 01"</t>
+  </si>
+  <si>
+    <t>"Hall 01"</t>
+  </si>
+  <si>
+    <t>Estacionamento.01</t>
+  </si>
+  <si>
+    <t>Estacionamento.02</t>
+  </si>
+  <si>
+    <t>"Estacionamento 01"</t>
+  </si>
+  <si>
+    <t>"Estacionamento 02"</t>
+  </si>
+  <si>
+    <t>é.categoria</t>
+  </si>
+  <si>
+    <t>AmbienteRevit</t>
+  </si>
+  <si>
+    <t>AmbienteIFC</t>
+  </si>
+  <si>
+    <t>AreaRevit</t>
+  </si>
+  <si>
+    <t>"Habitação"</t>
   </si>
 </sst>
 </file>
@@ -433,7 +388,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +437,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -510,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -563,26 +530,29 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="60">
     <dxf>
       <font>
         <b val="0"/>
@@ -593,6 +563,216 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
@@ -601,96 +781,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
@@ -820,6 +910,224 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1163,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1171,7 +1479,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1179,7 +1487,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1221,7 +1529,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1229,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1237,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1245,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1253,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1261,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1269,7 +1577,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1277,24 +1585,24 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="11">
         <f ca="1">NOW()</f>
-        <v>45376.653060532408</v>
+        <v>45377.439469560188</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1305,11 +1613,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB562E2-4AE2-4803-9404-94F78FD89919}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1318,13 +1626,13 @@
     <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.88671875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.77734375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.77734375" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.44140625" style="16" customWidth="1"/>
@@ -1337,43 +1645,43 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>3</v>
@@ -1384,18 +1692,18 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="20" t="s">
@@ -1410,7 +1718,7 @@
       <c r="J2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="15" t="s">
@@ -1420,11 +1728,11 @@
         <v>13</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" s="7" t="str">
         <f>_xlfn.CONCAT("""","Elemento espacial :   ",B2,"""")</f>
-        <v>"Elemento espacial :   OST_Areas"</v>
+        <v>"Elemento espacial :   AreaRevit"</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1432,18 +1740,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="20" t="s">
@@ -1458,7 +1766,7 @@
       <c r="J3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="15" t="s">
@@ -1468,11 +1776,11 @@
         <v>13</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" s="7" t="str">
-        <f t="shared" ref="O3:O27" si="0">_xlfn.CONCAT("""","Elemento espacial :   ",B3,"""")</f>
-        <v>"Elemento espacial :   OST_Rooms"</v>
+        <f>_xlfn.CONCAT("""","Elemento espacial :   ",B3,"""")</f>
+        <v>"Elemento espacial :   AmbienteRevit"</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1480,18 +1788,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="20" t="s">
@@ -1506,7 +1814,7 @@
       <c r="J4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="15" t="s">
@@ -1516,11 +1824,11 @@
         <v>13</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   OST_MEPSystemZone"</v>
+        <f t="shared" ref="O4:O17" si="0">_xlfn.CONCAT("""","Elemento espacial :   ",B4,"""")</f>
+        <v>"Elemento espacial :   AmbienteIFC"</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1528,47 +1836,47 @@
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   OST_MEPSpaces"</v>
+        <v>"Elemento espacial :   Apto.101"</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1576,47 +1884,47 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>13</v>
+        <v>64</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   OST_HVAC_Zones"</v>
+        <v>"Elemento espacial :   Hall.01"</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1624,47 +1932,47 @@
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>13</v>
+      <c r="K7" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   ifcZone"</v>
+        <v>"Elemento espacial :   Sala.01"</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1672,47 +1980,47 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>13</v>
-      </c>
       <c r="I8" s="17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   ifcSpatialZone"</v>
+        <v>"Elemento espacial :   Quarto.01"</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1720,47 +2028,47 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>13</v>
-      </c>
       <c r="M9" s="17" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   ifcSpace"</v>
+        <v>"Elemento espacial :   Quarto.02"</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1768,47 +2076,47 @@
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>54</v>
-      </c>
       <c r="J10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>65</v>
+        <v>34</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Hall1"</v>
+        <v>"Elemento espacial :   Quarto.03"</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1816,47 +2124,47 @@
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>13</v>
+        <v>68</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>66</v>
+        <v>34</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Sala1"</v>
+        <v>"Elemento espacial :   Quarto.04"</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1864,47 +2172,47 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>13</v>
+        <v>69</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>67</v>
+        <v>34</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Quarto1"</v>
+        <v>"Elemento espacial :   Cozinha.01"</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1912,47 +2220,47 @@
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>13</v>
+        <v>71</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Quarto2"</v>
+        <v>"Elemento espacial :   Banheiro.01"</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1960,47 +2268,47 @@
         <v>14</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>13</v>
+        <v>71</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>69</v>
+        <v>34</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Quarto3"</v>
+        <v>"Elemento espacial :   Banheiro.02"</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2008,47 +2316,47 @@
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>70</v>
+        <v>34</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Quarto4"</v>
+        <v>"Elemento espacial :   Banheiro.03"</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2056,47 +2364,47 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>71</v>
+        <v>34</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Cozinha1"</v>
+        <v>"Elemento espacial :   Estacionamento.01"</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2104,594 +2412,121 @@
         <v>17</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>72</v>
+        <v>34</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Banheiro1"</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
-        <v>18</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Banheiro2"</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
-        <v>19</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Banheiro3"</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
-        <v>20</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Estacionamento1"</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
-        <v>21</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Estacionamento2"</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
-        <v>22</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   M.Hall1"</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
-        <v>23</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   M.Sala1"</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <v>24</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   M.Quarto1"</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
-        <v>25</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   M.Quarto2"</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
-        <v>26</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   M.Quarto3"</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
-        <v>27</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   M.Quarto4"</v>
+        <v>"Elemento espacial :   Estacionamento.02"</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O19">
-    <sortCondition ref="C1:C19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O15">
+    <sortCondition ref="C1:C15"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1 A28:B1048576 F28:F1048576 N28:N1048576 H28:H1048576 L28:L1048576 E21:N21 D2:O2 D21:D1048576 A2:A27 J22:N22 E22:I27 J23:J1048576 K23:N27 D3:N20 P1:XFD1048576 O3:O27">
-    <cfRule type="cellIs" dxfId="0" priority="1440" operator="equal">
+  <conditionalFormatting sqref="A1:B1 A18:B1048576 F18:F1048576 H18:H1048576 L18:L1048576 N18:N1048576 J18:J1048576 P1:XFD1 P3:XFD1048576 D2:D1048576 F2:XFD2 F3:O17 A2:A17">
+    <cfRule type="cellIs" dxfId="0" priority="1454" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B6">
-    <cfRule type="duplicateValues" dxfId="24" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="82"/>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="duplicateValues" dxfId="29" priority="3824"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3825"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B27">
-    <cfRule type="duplicateValues" dxfId="22" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="148"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="150"/>
+  <conditionalFormatting sqref="B18:B1048576 B1">
+    <cfRule type="duplicateValues" dxfId="27" priority="1453"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="15" priority="1439"/>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="14" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="200" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1 L1">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="cellIs" dxfId="13" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="198" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1 L1">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="B6:B17">
+    <cfRule type="duplicateValues" dxfId="21" priority="3839"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3840"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3841"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="3842"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3843"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3844"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3845"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="duplicateValues" dxfId="14" priority="3853"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3854"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3855"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3856"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3857"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B9">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="duplicateValues" dxfId="9" priority="3863"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3864"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="8" priority="3810"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="3811"/>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B9">
-    <cfRule type="duplicateValues" dxfId="6" priority="3812"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="3813"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="3814"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3815"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3816"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Onto_Ambientes/Ontologia_V1_Projeto_Ambientes.xlsx
+++ b/Onto_Ambientes/Ontologia_V1_Projeto_Ambientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_Ambientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88EFF0D-1FEB-4614-8685-5D290295850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9455C941-6570-42E1-845D-785C831633B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="FatosIn" sheetId="28" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FatosIn!$E$1:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FatosIn!$E$1:$E$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="111">
   <si>
     <t>Escopo</t>
   </si>
@@ -183,66 +183,21 @@
     <t>"A110"</t>
   </si>
   <si>
-    <t>"Quarto4"</t>
-  </si>
-  <si>
     <t>"E101"</t>
   </si>
   <si>
     <t>"E102"</t>
   </si>
   <si>
-    <t>Apto.101</t>
-  </si>
-  <si>
     <t>Apartamento</t>
   </si>
   <si>
     <t>é.dentro.de</t>
   </si>
   <si>
-    <t>"APTO.101"</t>
-  </si>
-  <si>
-    <t>"Apartamento 101"</t>
-  </si>
-  <si>
-    <t>Ext.Habitacional</t>
-  </si>
-  <si>
-    <t>Quarto.01</t>
-  </si>
-  <si>
-    <t>Quarto.02</t>
-  </si>
-  <si>
-    <t>Quarto.03</t>
-  </si>
-  <si>
-    <t>Quarto.04</t>
-  </si>
-  <si>
-    <t>Cozinha.01</t>
-  </si>
-  <si>
-    <t>Banheiro.01</t>
-  </si>
-  <si>
-    <t>Banheiro.02</t>
-  </si>
-  <si>
-    <t>Banheiro.03</t>
-  </si>
-  <si>
     <t>Hall</t>
   </si>
   <si>
-    <t>Hall.01</t>
-  </si>
-  <si>
-    <t>Sala.01</t>
-  </si>
-  <si>
     <t>Sala</t>
   </si>
   <si>
@@ -258,45 +213,12 @@
     <t>Banheiro</t>
   </si>
   <si>
-    <t>"Banheiro 01"</t>
-  </si>
-  <si>
-    <t>"Banheiro 02"</t>
-  </si>
-  <si>
-    <t>"Banheiro 03"</t>
-  </si>
-  <si>
-    <t>"Cozinha 01"</t>
-  </si>
-  <si>
-    <t>"Quarto 03"</t>
-  </si>
-  <si>
-    <t>"Quarto 02"</t>
-  </si>
-  <si>
-    <t>"Quarto 01"</t>
-  </si>
-  <si>
-    <t>"Sala 01"</t>
-  </si>
-  <si>
-    <t>"Hall 01"</t>
-  </si>
-  <si>
     <t>Estacionamento.01</t>
   </si>
   <si>
     <t>Estacionamento.02</t>
   </si>
   <si>
-    <t>"Estacionamento 01"</t>
-  </si>
-  <si>
-    <t>"Estacionamento 02"</t>
-  </si>
-  <si>
     <t>é.categoria</t>
   </si>
   <si>
@@ -310,6 +232,147 @@
   </si>
   <si>
     <t>"Habitação"</t>
+  </si>
+  <si>
+    <t>Pavimento</t>
+  </si>
+  <si>
+    <t>Andar.01</t>
+  </si>
+  <si>
+    <t>"A2101"</t>
+  </si>
+  <si>
+    <t>"A2102"</t>
+  </si>
+  <si>
+    <t>"A2103"</t>
+  </si>
+  <si>
+    <t>"A2104"</t>
+  </si>
+  <si>
+    <t>"A2105"</t>
+  </si>
+  <si>
+    <t>"A2106"</t>
+  </si>
+  <si>
+    <t>"A2107"</t>
+  </si>
+  <si>
+    <t>"A2108"</t>
+  </si>
+  <si>
+    <t>"A2109"</t>
+  </si>
+  <si>
+    <t>"A2110"</t>
+  </si>
+  <si>
+    <t>ifcSpace</t>
+  </si>
+  <si>
+    <t>Estacionamento.Ext</t>
+  </si>
+  <si>
+    <t>AreaIFC</t>
+  </si>
+  <si>
+    <t>Hall.A01</t>
+  </si>
+  <si>
+    <t>Sala.A01</t>
+  </si>
+  <si>
+    <t>Quarto.A01</t>
+  </si>
+  <si>
+    <t>Quarto.A02</t>
+  </si>
+  <si>
+    <t>Quarto.A03</t>
+  </si>
+  <si>
+    <t>Quarto.A04</t>
+  </si>
+  <si>
+    <t>Cozinha.A01</t>
+  </si>
+  <si>
+    <t>Banheiro.A01</t>
+  </si>
+  <si>
+    <t>Banheiro.A02</t>
+  </si>
+  <si>
+    <t>Banheiro.A03</t>
+  </si>
+  <si>
+    <t>Hall.B01</t>
+  </si>
+  <si>
+    <t>Sala.B01</t>
+  </si>
+  <si>
+    <t>Quarto.B01</t>
+  </si>
+  <si>
+    <t>Quarto.B02</t>
+  </si>
+  <si>
+    <t>Quarto.B03</t>
+  </si>
+  <si>
+    <t>Quarto.B04</t>
+  </si>
+  <si>
+    <t>Cozinha.B01</t>
+  </si>
+  <si>
+    <t>Banheiro.B01</t>
+  </si>
+  <si>
+    <t>Banheiro.B02</t>
+  </si>
+  <si>
+    <t>Banheiro.B03</t>
+  </si>
+  <si>
+    <t>"Pavto.01"</t>
+  </si>
+  <si>
+    <t>"1° Pavimento"</t>
+  </si>
+  <si>
+    <t>"APTO.A"</t>
+  </si>
+  <si>
+    <t>"APTO.B"</t>
+  </si>
+  <si>
+    <t>"Apartamento A"</t>
+  </si>
+  <si>
+    <t>"Apartamento B"</t>
+  </si>
+  <si>
+    <t>Apto.A100</t>
+  </si>
+  <si>
+    <t>Apto.B100</t>
+  </si>
+  <si>
+    <t>Bloco.A</t>
+  </si>
+  <si>
+    <t>Bloco</t>
+  </si>
+  <si>
+    <t>"Bloco.A"</t>
+  </si>
+  <si>
+    <t>"Bloco A"</t>
   </si>
 </sst>
 </file>
@@ -552,7 +615,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="29">
     <dxf>
       <font>
         <b val="0"/>
@@ -560,56 +623,6 @@
         <strike val="0"/>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -805,14 +818,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -890,244 +895,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1594,7 +1361,7 @@
       </c>
       <c r="B17" s="11">
         <f ca="1">NOW()</f>
-        <v>45377.439469560188</v>
+        <v>45377.509626388892</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1613,34 +1380,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB562E2-4AE2-4803-9404-94F78FD89919}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="12" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="4.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.77734375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.77734375" style="16" customWidth="1"/>
     <col min="15" max="15" width="26" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="12" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13">
         <v>1</v>
       </c>
@@ -1687,12 +1454,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>28</v>
@@ -1735,12 +1502,12 @@
         <v>"Elemento espacial :   AreaRevit"</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>29</v>
@@ -1783,12 +1550,12 @@
         <v>"Elemento espacial :   AmbienteRevit"</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>30</v>
@@ -1827,19 +1594,19 @@
         <v>27</v>
       </c>
       <c r="O4" s="7" t="str">
-        <f t="shared" ref="O4:O17" si="0">_xlfn.CONCAT("""","Elemento espacial :   ",B4,"""")</f>
-        <v>"Elemento espacial :   AmbienteIFC"</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <f>_xlfn.CONCAT("""","Elemento espacial :   ",B4,"""")</f>
+        <v>"Elemento espacial :   AreaIFC"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>13</v>
@@ -1854,679 +1621,1366 @@
         <v>13</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Apto.101"</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="O5:O31" si="0">_xlfn.CONCAT("""","Elemento espacial :   ",B5,"""")</f>
+        <v>"Elemento espacial :   AmbienteIFC"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>86</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Hall.01"</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="O6" si="1">_xlfn.CONCAT("""","Elemento espacial :   ",B6,"""")</f>
+        <v>"Elemento espacial :   Bloco.A"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>86</v>
+        <v>13</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N7" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Sala.01"</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>"Elemento espacial :   Andar.01"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N8" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Quarto.01"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="O8" si="2">_xlfn.CONCAT("""","Elemento espacial :   ",B8,"""")</f>
+        <v>"Elemento espacial :   Apto.A100"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Quarto.02"</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>"Elemento espacial :   Apto.B100"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="18" t="s">
-        <v>76</v>
+      <c r="K10" s="18" t="str">
+        <f t="shared" ref="K10:K19" si="3">_xlfn.CONCAT("""",B10,"""")</f>
+        <v>"Hall.A01"</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N10" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Quarto.03"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>"Elemento espacial :   Hall.A01"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>50</v>
+      <c r="G11" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="18" t="s">
-        <v>47</v>
+      <c r="K11" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>"Sala.A01"</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N11" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Quarto.04"</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>"Elemento espacial :   Sala.A01"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>50</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="18" t="s">
-        <v>75</v>
+      <c r="K12" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>"Quarto.A01"</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Cozinha.01"</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>"Elemento espacial :   Quarto.A01"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="18" t="s">
-        <v>72</v>
+      <c r="K13" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>"Quarto.A02"</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N13" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Banheiro.01"</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>"Elemento espacial :   Quarto.A02"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>14</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="18" t="s">
-        <v>73</v>
+      <c r="K14" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>"Quarto.A03"</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Banheiro.02"</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>"Elemento espacial :   Quarto.A03"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="18" t="s">
-        <v>74</v>
+      <c r="K15" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>"Quarto.A04"</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N15" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Banheiro.03"</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>"Elemento espacial :   Quarto.A04"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>88</v>
+        <v>50</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="18" t="s">
-        <v>83</v>
+      <c r="K16" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>"Cozinha.A01"</v>
       </c>
       <c r="L16" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N16" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Estacionamento.01"</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>"Elemento espacial :   Cozinha.A01"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>17</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>88</v>
+        <v>50</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="18" t="s">
-        <v>84</v>
+      <c r="K17" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>"Banheiro.A01"</v>
       </c>
       <c r="L17" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N17" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O17" s="7" t="str">
         <f t="shared" si="0"/>
+        <v>"Elemento espacial :   Banheiro.A01"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>18</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>"Banheiro.A02"</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Elemento espacial :   Banheiro.A02"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>19</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>"Banheiro.A03"</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Elemento espacial :   Banheiro.A03"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>20</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="18" t="str">
+        <f>_xlfn.CONCAT("""",B20,"""")</f>
+        <v>"Hall.B01"</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="7" t="str">
+        <f t="shared" ref="O20:O29" si="4">_xlfn.CONCAT("""","Elemento espacial :   ",B20,"""")</f>
+        <v>"Elemento espacial :   Hall.B01"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>21</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="18" t="str">
+        <f t="shared" ref="K21:K31" si="5">_xlfn.CONCAT("""",B21,"""")</f>
+        <v>"Sala.B01"</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"Elemento espacial :   Sala.B01"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>22</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>"Quarto.B01"</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"Elemento espacial :   Quarto.B01"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>23</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>"Quarto.B02"</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"Elemento espacial :   Quarto.B02"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>"Quarto.B03"</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"Elemento espacial :   Quarto.B03"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>25</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>"Quarto.B04"</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"Elemento espacial :   Quarto.B04"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <v>26</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>"Cozinha.B01"</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"Elemento espacial :   Cozinha.B01"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>27</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>"Banheiro.B01"</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"Elemento espacial :   Banheiro.B01"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>28</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>"Banheiro.B02"</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"Elemento espacial :   Banheiro.B02"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>29</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>"Banheiro.B03"</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>"Elemento espacial :   Banheiro.B03"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <v>30</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="18" t="str">
+        <f>_xlfn.CONCAT("""",B30,"""")</f>
+        <v>"Estacionamento.01"</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Elemento espacial :   Estacionamento.01"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <v>31</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>"Estacionamento.02"</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>"Elemento espacial :   Estacionamento.02"</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O15">
-    <sortCondition ref="C1:C15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:O19">
+    <sortCondition ref="C1:C19"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1 A18:B1048576 F18:F1048576 H18:H1048576 L18:L1048576 N18:N1048576 J18:J1048576 P1:XFD1 P3:XFD1048576 D2:D1048576 F2:XFD2 F3:O17 A2:A17">
-    <cfRule type="cellIs" dxfId="0" priority="1454" operator="equal">
+  <conditionalFormatting sqref="A1:B1 A32:B1048576 P1:XFD1 H32:H1048576 J32:J1048576 L32:L1048576 N32:N1048576 P30:XFD1048576 H30:O31 D56:D1048576 H10:XFD29 F10:F1048576 D32:D44 E33:E44 D45:E55 D10:E31 D8:G9 D1:D7 A2:A31 F2:XFD9">
+    <cfRule type="cellIs" dxfId="0" priority="1461" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B4">
-    <cfRule type="duplicateValues" dxfId="29" priority="3824"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="3825"/>
+  <conditionalFormatting sqref="B10:B31">
+    <cfRule type="duplicateValues" dxfId="28" priority="3846"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3847"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3848"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3849"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3850"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3851"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3852"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="27" priority="1453"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="B32:B1048576 B1">
+    <cfRule type="duplicateValues" dxfId="21" priority="1460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="25" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="207" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1 L1">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="cellIs" dxfId="22" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="205" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B17">
-    <cfRule type="duplicateValues" dxfId="21" priority="3839"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="3840"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="3841"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="3842"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="3843"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="3844"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="3845"/>
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="duplicateValues" dxfId="16" priority="3876"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3877"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="14" priority="3853"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="3854"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="3855"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="3856"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="3857"/>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="9" priority="3863"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3864"/>
+  <conditionalFormatting sqref="B6:B9">
+    <cfRule type="duplicateValues" dxfId="7" priority="3889"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3890"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  <conditionalFormatting sqref="B2:B9">
+    <cfRule type="duplicateValues" dxfId="5" priority="3894"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3895"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3896"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3897"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3898"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Onto_Ambientes/Ontologia_V1_Projeto_Ambientes.xlsx
+++ b/Onto_Ambientes/Ontologia_V1_Projeto_Ambientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_Ambientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9455C941-6570-42E1-845D-785C831633B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8322AFE-4905-4F12-9B89-D3EEFB3E1AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="FatosIn" sheetId="28" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FatosIn!$E$1:$E$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FatosIn!$E$1:$E$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="116">
   <si>
     <t>Escopo</t>
   </si>
@@ -222,15 +222,6 @@
     <t>é.categoria</t>
   </si>
   <si>
-    <t>AmbienteRevit</t>
-  </si>
-  <si>
-    <t>AmbienteIFC</t>
-  </si>
-  <si>
-    <t>AreaRevit</t>
-  </si>
-  <si>
     <t>"Habitação"</t>
   </si>
   <si>
@@ -276,9 +267,6 @@
     <t>Estacionamento.Ext</t>
   </si>
   <si>
-    <t>AreaIFC</t>
-  </si>
-  <si>
     <t>Hall.A01</t>
   </si>
   <si>
@@ -373,6 +361,33 @@
   </si>
   <si>
     <t>"Bloco A"</t>
+  </si>
+  <si>
+    <t>Nucleo.Elev</t>
+  </si>
+  <si>
+    <t>Elevadores2</t>
+  </si>
+  <si>
+    <t>"Elevadores Sociais"</t>
+  </si>
+  <si>
+    <t>"Circulação Vertical"</t>
+  </si>
+  <si>
+    <t>"Eleva.01"</t>
+  </si>
+  <si>
+    <t>Revit.Room</t>
+  </si>
+  <si>
+    <t>Revit.Area</t>
+  </si>
+  <si>
+    <t>Ifc.Zone</t>
+  </si>
+  <si>
+    <t>Ifc.Space</t>
   </si>
 </sst>
 </file>
@@ -626,6 +641,30 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -633,6 +672,74 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -723,98 +830,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1361,7 +1376,7 @@
       </c>
       <c r="B17" s="11">
         <f ca="1">NOW()</f>
-        <v>45377.509626388892</v>
+        <v>45377.674931018519</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1380,11 +1395,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB562E2-4AE2-4803-9404-94F78FD89919}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1401,7 +1416,7 @@
     <col min="10" max="10" width="4.77734375" style="16" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.77734375" style="16" customWidth="1"/>
     <col min="15" max="15" width="26" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9.109375" style="2"/>
@@ -1459,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>28</v>
@@ -1499,7 +1514,7 @@
       </c>
       <c r="O2" s="7" t="str">
         <f>_xlfn.CONCAT("""","Elemento espacial :   ",B2,"""")</f>
-        <v>"Elemento espacial :   AreaRevit"</v>
+        <v>"Elemento espacial :   Revit.Area"</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1507,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>29</v>
@@ -1547,7 +1562,7 @@
       </c>
       <c r="O3" s="7" t="str">
         <f>_xlfn.CONCAT("""","Elemento espacial :   ",B3,"""")</f>
-        <v>"Elemento espacial :   AmbienteRevit"</v>
+        <v>"Elemento espacial :   Revit.Room"</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1555,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>30</v>
@@ -1595,7 +1610,7 @@
       </c>
       <c r="O4" s="7" t="str">
         <f>_xlfn.CONCAT("""","Elemento espacial :   ",B4,"""")</f>
-        <v>"Elemento espacial :   AreaIFC"</v>
+        <v>"Elemento espacial :   Ifc.Zone"</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1603,10 +1618,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>13</v>
@@ -1642,8 +1657,8 @@
         <v>27</v>
       </c>
       <c r="O5" s="7" t="str">
-        <f t="shared" ref="O5:O31" si="0">_xlfn.CONCAT("""","Elemento espacial :   ",B5,"""")</f>
-        <v>"Elemento espacial :   AmbienteIFC"</v>
+        <f t="shared" ref="O5:O32" si="0">_xlfn.CONCAT("""","Elemento espacial :   ",B5,"""")</f>
+        <v>"Elemento espacial :   Ifc.Space"</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1651,10 +1666,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>13</v>
@@ -1672,19 +1687,19 @@
         <v>35</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>27</v>
@@ -1699,10 +1714,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>13</v>
@@ -1720,19 +1735,19 @@
         <v>35</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N7" s="15" t="s">
         <v>27</v>
@@ -1747,47 +1762,47 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="N8" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O8" s="7" t="str">
-        <f t="shared" ref="O8" si="2">_xlfn.CONCAT("""","Elemento espacial :   ",B8,"""")</f>
-        <v>"Elemento espacial :   Apto.A100"</v>
+        <f t="shared" si="0"/>
+        <v>"Elemento espacial :   Nucleo.Elev"</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1795,7 +1810,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>49</v>
@@ -1804,38 +1819,38 @@
         <v>50</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Apto.B100"</v>
+        <f t="shared" ref="O9" si="2">_xlfn.CONCAT("""","Elemento espacial :   ",B9,"""")</f>
+        <v>"Elemento espacial :   Apto.A100"</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1843,48 +1858,47 @@
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="18" t="str">
-        <f t="shared" ref="K10:K19" si="3">_xlfn.CONCAT("""",B10,"""")</f>
-        <v>"Hall.A01"</v>
+      <c r="K10" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N10" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Hall.A01"</v>
+        <v>"Elemento espacial :   Apto.B100"</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1892,48 +1906,48 @@
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K11" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Sala.A01"</v>
+        <f t="shared" ref="K11:K20" si="3">_xlfn.CONCAT("""",B11,"""")</f>
+        <v>"Hall.A01"</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N11" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Sala.A01"</v>
+        <v>"Elemento espacial :   Hall.A01"</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1941,48 +1955,48 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K12" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>"Quarto.A01"</v>
+        <v>"Sala.A01"</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Quarto.A01"</v>
+        <v>"Elemento espacial :   Sala.A01"</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1990,7 +2004,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>53</v>
@@ -1999,39 +2013,39 @@
         <v>50</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K13" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>"Quarto.A02"</v>
+        <v>"Quarto.A01"</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N13" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Quarto.A02"</v>
+        <v>"Elemento espacial :   Quarto.A01"</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2039,7 +2053,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>53</v>
@@ -2048,39 +2062,39 @@
         <v>50</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K14" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>"Quarto.A03"</v>
+        <v>"Quarto.A02"</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Quarto.A03"</v>
+        <v>"Elemento espacial :   Quarto.A02"</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2088,7 +2102,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>53</v>
@@ -2097,39 +2111,39 @@
         <v>50</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K15" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>"Quarto.A04"</v>
+        <v>"Quarto.A03"</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N15" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Quarto.A04"</v>
+        <v>"Elemento espacial :   Quarto.A03"</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2137,48 +2151,48 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K16" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>"Cozinha.A01"</v>
+        <v>"Quarto.A04"</v>
       </c>
       <c r="L16" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N16" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Cozinha.A01"</v>
+        <v>"Elemento espacial :   Quarto.A04"</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2186,48 +2200,48 @@
         <v>17</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K17" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>"Banheiro.A01"</v>
+        <v>"Cozinha.A01"</v>
       </c>
       <c r="L17" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N17" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Banheiro.A01"</v>
+        <v>"Elemento espacial :   Cozinha.A01"</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2235,7 +2249,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>56</v>
@@ -2244,39 +2258,39 @@
         <v>50</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K18" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>"Banheiro.A02"</v>
+        <v>"Banheiro.A01"</v>
       </c>
       <c r="L18" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N18" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Banheiro.A02"</v>
+        <v>"Elemento espacial :   Banheiro.A01"</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2284,48 +2298,48 @@
         <v>19</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K19" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>"Banheiro.A03"</v>
+        <v>"Banheiro.A02"</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N19" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Banheiro.A03"</v>
+        <v>"Elemento espacial :   Banheiro.A02"</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2333,48 +2347,48 @@
         <v>20</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K20" s="18" t="str">
-        <f>_xlfn.CONCAT("""",B20,"""")</f>
-        <v>"Hall.B01"</v>
+        <f t="shared" si="3"/>
+        <v>"Banheiro.A03"</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O20" s="7" t="str">
-        <f t="shared" ref="O20:O29" si="4">_xlfn.CONCAT("""","Elemento espacial :   ",B20,"""")</f>
-        <v>"Elemento espacial :   Hall.B01"</v>
+        <f t="shared" si="0"/>
+        <v>"Elemento espacial :   Banheiro.A03"</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2382,48 +2396,48 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K21" s="18" t="str">
-        <f t="shared" ref="K21:K31" si="5">_xlfn.CONCAT("""",B21,"""")</f>
-        <v>"Sala.B01"</v>
+        <f>_xlfn.CONCAT("""",B21,"""")</f>
+        <v>"Hall.B01"</v>
       </c>
       <c r="L21" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N21" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O21" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>"Elemento espacial :   Sala.B01"</v>
+        <f t="shared" ref="O21:O30" si="4">_xlfn.CONCAT("""","Elemento espacial :   ",B21,"""")</f>
+        <v>"Elemento espacial :   Hall.B01"</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2431,48 +2445,48 @@
         <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K22" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v>"Quarto.B01"</v>
+        <f t="shared" ref="K22:K32" si="5">_xlfn.CONCAT("""",B22,"""")</f>
+        <v>"Sala.B01"</v>
       </c>
       <c r="L22" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O22" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>"Elemento espacial :   Quarto.B01"</v>
+        <v>"Elemento espacial :   Sala.B01"</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2480,7 +2494,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>53</v>
@@ -2489,39 +2503,39 @@
         <v>50</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J23" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K23" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>"Quarto.B02"</v>
+        <v>"Quarto.B01"</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O23" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>"Elemento espacial :   Quarto.B02"</v>
+        <v>"Elemento espacial :   Quarto.B01"</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2529,7 +2543,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>53</v>
@@ -2538,39 +2552,39 @@
         <v>50</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K24" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>"Quarto.B03"</v>
+        <v>"Quarto.B02"</v>
       </c>
       <c r="L24" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O24" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>"Elemento espacial :   Quarto.B03"</v>
+        <v>"Elemento espacial :   Quarto.B02"</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2578,7 +2592,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>53</v>
@@ -2587,39 +2601,39 @@
         <v>50</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K25" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>"Quarto.B04"</v>
+        <v>"Quarto.B03"</v>
       </c>
       <c r="L25" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N25" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O25" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>"Elemento espacial :   Quarto.B04"</v>
+        <v>"Elemento espacial :   Quarto.B03"</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2627,48 +2641,48 @@
         <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K26" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>"Cozinha.B01"</v>
+        <v>"Quarto.B04"</v>
       </c>
       <c r="L26" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M26" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O26" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>"Elemento espacial :   Cozinha.B01"</v>
+        <v>"Elemento espacial :   Quarto.B04"</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2676,48 +2690,48 @@
         <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>"Banheiro.B01"</v>
+        <v>"Cozinha.B01"</v>
       </c>
       <c r="L27" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N27" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O27" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>"Elemento espacial :   Banheiro.B01"</v>
+        <v>"Elemento espacial :   Cozinha.B01"</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2725,7 +2739,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>56</v>
@@ -2734,39 +2748,39 @@
         <v>50</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K28" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>"Banheiro.B02"</v>
+        <v>"Banheiro.B01"</v>
       </c>
       <c r="L28" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O28" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>"Elemento espacial :   Banheiro.B02"</v>
+        <v>"Elemento espacial :   Banheiro.B01"</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2774,48 +2788,48 @@
         <v>29</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K29" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>"Banheiro.B03"</v>
+        <v>"Banheiro.B02"</v>
       </c>
       <c r="L29" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M29" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N29" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O29" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>"Elemento espacial :   Banheiro.B03"</v>
+        <v>"Elemento espacial :   Banheiro.B02"</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2823,48 +2837,48 @@
         <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K30" s="18" t="str">
-        <f>_xlfn.CONCAT("""",B30,"""")</f>
-        <v>"Estacionamento.01"</v>
+        <f t="shared" si="5"/>
+        <v>"Banheiro.B03"</v>
       </c>
       <c r="L30" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>27</v>
       </c>
       <c r="O30" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Elemento espacial :   Estacionamento.01"</v>
+        <f t="shared" si="4"/>
+        <v>"Elemento espacial :   Banheiro.B03"</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2872,10 +2886,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>13</v>
@@ -2887,100 +2901,140 @@
         <v>59</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K31" s="18" t="str">
+        <f>_xlfn.CONCAT("""",B31,"""")</f>
+        <v>"Estacionamento.01"</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Elemento espacial :   Estacionamento.01"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <v>32</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="18" t="str">
         <f t="shared" si="5"/>
         <v>"Estacionamento.02"</v>
       </c>
-      <c r="L31" s="15" t="s">
+      <c r="L32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M31" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N31" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" s="7" t="str">
+      <c r="M32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Estacionamento.02"</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:O19">
-    <sortCondition ref="C1:C19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:O20">
+    <sortCondition ref="C1:C20"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1 A32:B1048576 P1:XFD1 H32:H1048576 J32:J1048576 L32:L1048576 N32:N1048576 P30:XFD1048576 H30:O31 D56:D1048576 H10:XFD29 F10:F1048576 D32:D44 E33:E44 D45:E55 D10:E31 D8:G9 D1:D7 A2:A31 F2:XFD9">
+  <conditionalFormatting sqref="A1:B1 A33:B1048576 P1:XFD1 D1:D7 F2:XFD7 H11:XFD30 D11:E32 F11:F1048576 H31:O32 P31:XFD1048576 D33:D45 H33:H1048576 J33:J1048576 L33:L1048576 N33:N1048576 E34:E45 D46:E56 D57:D1048576 D8:XFD10 A2:A32">
     <cfRule type="cellIs" dxfId="0" priority="1461" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B31">
-    <cfRule type="duplicateValues" dxfId="28" priority="3846"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="3847"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="3848"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="3849"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="3850"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="3851"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="3852"/>
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="duplicateValues" dxfId="28" priority="3876"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3877"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="21" priority="1460"/>
+  <conditionalFormatting sqref="B2:B10">
+    <cfRule type="duplicateValues" dxfId="26" priority="3894"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3895"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3896"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3897"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3898"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B10">
+    <cfRule type="duplicateValues" dxfId="21" priority="3889"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3890"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B32">
+    <cfRule type="duplicateValues" dxfId="19" priority="3846"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="3847"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3848"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3849"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3850"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3851"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3852"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B1048576 B1">
+    <cfRule type="duplicateValues" dxfId="12" priority="1460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="20" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="207" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1 L1">
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="cellIs" dxfId="17" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="205" operator="equal">
       <formula>"null"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="16" priority="3876"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="3877"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B9">
-    <cfRule type="duplicateValues" dxfId="7" priority="3889"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="3890"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B9">
-    <cfRule type="duplicateValues" dxfId="5" priority="3894"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="3895"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3896"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3897"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3898"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Onto_Ambientes/Ontologia_V1_Projeto_Ambientes.xlsx
+++ b/Onto_Ambientes/Ontologia_V1_Projeto_Ambientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_Ambientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8322AFE-4905-4F12-9B89-D3EEFB3E1AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0FDB59-A4A4-4FC4-887C-6F0750E8278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="117">
   <si>
     <t>Escopo</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>Ifc.Space</t>
+  </si>
+  <si>
+    <t>área</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -626,11 +629,23 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="23">
     <dxf>
       <font>
         <b val="0"/>
@@ -665,73 +680,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1376,7 +1329,7 @@
       </c>
       <c r="B17" s="11">
         <f ca="1">NOW()</f>
-        <v>45377.674931018519</v>
+        <v>45378.616581365743</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1395,11 +1348,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB562E2-4AE2-4803-9404-94F78FD89919}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1411,18 +1364,20 @@
     <col min="5" max="5" width="6.44140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" style="12" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.77734375" style="16" customWidth="1"/>
-    <col min="15" max="15" width="26" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="2"/>
+    <col min="8" max="8" width="3.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.77734375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" style="16" customWidth="1"/>
+    <col min="17" max="17" width="26" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13">
         <v>1</v>
       </c>
@@ -1447,7 +1402,7 @@
       <c r="H1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -1468,8 +1423,14 @@
       <c r="O1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>2</v>
       </c>
@@ -1491,33 +1452,39 @@
       <c r="G2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="7" t="str">
+      <c r="Q2" s="7" t="str">
         <f>_xlfn.CONCAT("""","Elemento espacial :   ",B2,"""")</f>
         <v>"Elemento espacial :   Revit.Area"</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>3</v>
       </c>
@@ -1539,33 +1506,39 @@
       <c r="G3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="7" t="str">
+      <c r="Q3" s="7" t="str">
         <f>_xlfn.CONCAT("""","Elemento espacial :   ",B3,"""")</f>
         <v>"Elemento espacial :   Revit.Room"</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>4</v>
       </c>
@@ -1587,33 +1560,39 @@
       <c r="G4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="7" t="str">
+      <c r="Q4" s="7" t="str">
         <f>_xlfn.CONCAT("""","Elemento espacial :   ",B4,"""")</f>
         <v>"Elemento espacial :   Ifc.Zone"</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>5</v>
       </c>
@@ -1635,33 +1614,39 @@
       <c r="G5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="17" t="s">
+      <c r="H5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="18" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="7" t="str">
-        <f t="shared" ref="O5:O32" si="0">_xlfn.CONCAT("""","Elemento espacial :   ",B5,"""")</f>
+      <c r="Q5" s="7" t="str">
+        <f t="shared" ref="Q5:Q32" si="0">_xlfn.CONCAT("""","Elemento espacial :   ",B5,"""")</f>
         <v>"Elemento espacial :   Ifc.Space"</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>6</v>
       </c>
@@ -1683,33 +1668,39 @@
       <c r="G6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="K6" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="L6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="M6" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="N6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="O6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="P6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="7" t="str">
-        <f t="shared" ref="O6" si="1">_xlfn.CONCAT("""","Elemento espacial :   ",B6,"""")</f>
+      <c r="Q6" s="7" t="str">
+        <f t="shared" ref="Q6" si="1">_xlfn.CONCAT("""","Elemento espacial :   ",B6,"""")</f>
         <v>"Elemento espacial :   Bloco.A"</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>7</v>
       </c>
@@ -1731,33 +1722,39 @@
       <c r="G7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="K7" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="L7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="M7" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="N7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="O7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="P7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="7" t="str">
+      <c r="Q7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Andar.01"</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>8</v>
       </c>
@@ -1779,33 +1776,39 @@
       <c r="G8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="K8" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="L8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="M8" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="N8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="O8" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="P8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="7" t="str">
+      <c r="Q8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Nucleo.Elev"</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>9</v>
       </c>
@@ -1827,33 +1830,39 @@
       <c r="G9" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="K9" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="L9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="M9" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="N9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="O9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="P9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="7" t="str">
-        <f t="shared" ref="O9" si="2">_xlfn.CONCAT("""","Elemento espacial :   ",B9,"""")</f>
+      <c r="Q9" s="7" t="str">
+        <f t="shared" ref="Q9" si="2">_xlfn.CONCAT("""","Elemento espacial :   ",B9,"""")</f>
         <v>"Elemento espacial :   Apto.A100"</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>10</v>
       </c>
@@ -1875,33 +1884,39 @@
       <c r="G10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="K10" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="L10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="M10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="N10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="O10" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="P10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="7" t="str">
+      <c r="Q10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Apto.B100"</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>11</v>
       </c>
@@ -1923,34 +1938,40 @@
       <c r="G11" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="K11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="L11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="18" t="str">
-        <f t="shared" ref="K11:K20" si="3">_xlfn.CONCAT("""",B11,"""")</f>
+      <c r="M11" s="18" t="str">
+        <f t="shared" ref="M11:M20" si="3">_xlfn.CONCAT("""",B11,"""")</f>
         <v>"Hall.A01"</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="N11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="O11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="P11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="7" t="str">
+      <c r="Q11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Hall.A01"</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>12</v>
       </c>
@@ -1972,34 +1993,40 @@
       <c r="G12" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="27">
+        <v>55.3</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="K12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="L12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="18" t="str">
+      <c r="M12" s="18" t="str">
         <f t="shared" si="3"/>
         <v>"Sala.A01"</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="N12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="O12" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="P12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="7" t="str">
+      <c r="Q12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Sala.A01"</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>13</v>
       </c>
@@ -2021,34 +2048,40 @@
       <c r="G13" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="K13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="L13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="18" t="str">
+      <c r="M13" s="18" t="str">
         <f t="shared" si="3"/>
         <v>"Quarto.A01"</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="N13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="O13" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="P13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="7" t="str">
+      <c r="Q13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Quarto.A01"</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>14</v>
       </c>
@@ -2070,34 +2103,40 @@
       <c r="G14" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="K14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="L14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="18" t="str">
+      <c r="M14" s="18" t="str">
         <f t="shared" si="3"/>
         <v>"Quarto.A02"</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="N14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="O14" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="P14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="7" t="str">
+      <c r="Q14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Quarto.A02"</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>15</v>
       </c>
@@ -2119,34 +2158,40 @@
       <c r="G15" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="K15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="L15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="18" t="str">
+      <c r="M15" s="18" t="str">
         <f t="shared" si="3"/>
         <v>"Quarto.A03"</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="N15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="O15" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="P15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="7" t="str">
+      <c r="Q15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Quarto.A03"</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>16</v>
       </c>
@@ -2168,34 +2213,40 @@
       <c r="G16" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="K16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="L16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="18" t="str">
+      <c r="M16" s="18" t="str">
         <f t="shared" si="3"/>
         <v>"Quarto.A04"</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="N16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="O16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="P16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="7" t="str">
+      <c r="Q16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Quarto.A04"</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>17</v>
       </c>
@@ -2217,34 +2268,40 @@
       <c r="G17" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="K17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="L17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="18" t="str">
+      <c r="M17" s="18" t="str">
         <f t="shared" si="3"/>
         <v>"Cozinha.A01"</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="N17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="O17" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="P17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="7" t="str">
+      <c r="Q17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Cozinha.A01"</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>18</v>
       </c>
@@ -2266,34 +2323,40 @@
       <c r="G18" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="K18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="L18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="18" t="str">
+      <c r="M18" s="18" t="str">
         <f t="shared" si="3"/>
         <v>"Banheiro.A01"</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="N18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="O18" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="P18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="7" t="str">
+      <c r="Q18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Banheiro.A01"</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>19</v>
       </c>
@@ -2315,34 +2378,40 @@
       <c r="G19" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="K19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="L19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="18" t="str">
+      <c r="M19" s="18" t="str">
         <f t="shared" si="3"/>
         <v>"Banheiro.A02"</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="N19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="O19" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="P19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O19" s="7" t="str">
+      <c r="Q19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Banheiro.A02"</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>20</v>
       </c>
@@ -2364,34 +2433,40 @@
       <c r="G20" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="K20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="L20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="18" t="str">
+      <c r="M20" s="18" t="str">
         <f t="shared" si="3"/>
         <v>"Banheiro.A03"</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="N20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="O20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="P20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="7" t="str">
+      <c r="Q20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Banheiro.A03"</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>21</v>
       </c>
@@ -2413,34 +2488,40 @@
       <c r="G21" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="K21" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="L21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="18" t="str">
+      <c r="M21" s="18" t="str">
         <f>_xlfn.CONCAT("""",B21,"""")</f>
         <v>"Hall.B01"</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="N21" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="O21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="P21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="7" t="str">
-        <f t="shared" ref="O21:O30" si="4">_xlfn.CONCAT("""","Elemento espacial :   ",B21,"""")</f>
+      <c r="Q21" s="7" t="str">
+        <f t="shared" ref="Q21:Q30" si="4">_xlfn.CONCAT("""","Elemento espacial :   ",B21,"""")</f>
         <v>"Elemento espacial :   Hall.B01"</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>22</v>
       </c>
@@ -2462,34 +2543,40 @@
       <c r="G22" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="27">
+        <v>54.3</v>
+      </c>
+      <c r="J22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="K22" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="L22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="18" t="str">
-        <f t="shared" ref="K22:K32" si="5">_xlfn.CONCAT("""",B22,"""")</f>
+      <c r="M22" s="18" t="str">
+        <f t="shared" ref="M22:M32" si="5">_xlfn.CONCAT("""",B22,"""")</f>
         <v>"Sala.B01"</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="N22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="O22" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="P22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O22" s="7" t="str">
+      <c r="Q22" s="7" t="str">
         <f t="shared" si="4"/>
         <v>"Elemento espacial :   Sala.B01"</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>23</v>
       </c>
@@ -2511,34 +2598,40 @@
       <c r="G23" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="K23" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="L23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="18" t="str">
+      <c r="M23" s="18" t="str">
         <f t="shared" si="5"/>
         <v>"Quarto.B01"</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="N23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="O23" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="P23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O23" s="7" t="str">
+      <c r="Q23" s="7" t="str">
         <f t="shared" si="4"/>
         <v>"Elemento espacial :   Quarto.B01"</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>24</v>
       </c>
@@ -2560,34 +2653,40 @@
       <c r="G24" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="K24" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="L24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="18" t="str">
+      <c r="M24" s="18" t="str">
         <f t="shared" si="5"/>
         <v>"Quarto.B02"</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="N24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="O24" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="P24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O24" s="7" t="str">
+      <c r="Q24" s="7" t="str">
         <f t="shared" si="4"/>
         <v>"Elemento espacial :   Quarto.B02"</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>25</v>
       </c>
@@ -2609,34 +2708,40 @@
       <c r="G25" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="K25" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="L25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="18" t="str">
+      <c r="M25" s="18" t="str">
         <f t="shared" si="5"/>
         <v>"Quarto.B03"</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="N25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="O25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="P25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="7" t="str">
+      <c r="Q25" s="7" t="str">
         <f t="shared" si="4"/>
         <v>"Elemento espacial :   Quarto.B03"</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>26</v>
       </c>
@@ -2658,34 +2763,40 @@
       <c r="G26" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="K26" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="L26" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="18" t="str">
+      <c r="M26" s="18" t="str">
         <f t="shared" si="5"/>
         <v>"Quarto.B04"</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="N26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="O26" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="P26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="7" t="str">
+      <c r="Q26" s="7" t="str">
         <f t="shared" si="4"/>
         <v>"Elemento espacial :   Quarto.B04"</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>27</v>
       </c>
@@ -2707,34 +2818,40 @@
       <c r="G27" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="K27" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="L27" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="18" t="str">
+      <c r="M27" s="18" t="str">
         <f t="shared" si="5"/>
         <v>"Cozinha.B01"</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="N27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M27" s="17" t="s">
+      <c r="O27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="P27" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O27" s="7" t="str">
+      <c r="Q27" s="7" t="str">
         <f t="shared" si="4"/>
         <v>"Elemento espacial :   Cozinha.B01"</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>28</v>
       </c>
@@ -2756,34 +2873,40 @@
       <c r="G28" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="K28" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="L28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K28" s="18" t="str">
+      <c r="M28" s="18" t="str">
         <f t="shared" si="5"/>
         <v>"Banheiro.B01"</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="N28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="O28" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="P28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="7" t="str">
+      <c r="Q28" s="7" t="str">
         <f t="shared" si="4"/>
         <v>"Elemento espacial :   Banheiro.B01"</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>29</v>
       </c>
@@ -2805,34 +2928,40 @@
       <c r="G29" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="K29" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="L29" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="18" t="str">
+      <c r="M29" s="18" t="str">
         <f t="shared" si="5"/>
         <v>"Banheiro.B02"</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="N29" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M29" s="17" t="s">
+      <c r="O29" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="P29" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O29" s="7" t="str">
+      <c r="Q29" s="7" t="str">
         <f t="shared" si="4"/>
         <v>"Elemento espacial :   Banheiro.B02"</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>30</v>
       </c>
@@ -2854,34 +2983,40 @@
       <c r="G30" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="K30" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="L30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="18" t="str">
+      <c r="M30" s="18" t="str">
         <f t="shared" si="5"/>
         <v>"Banheiro.B03"</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="N30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M30" s="17" t="s">
+      <c r="O30" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="P30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O30" s="7" t="str">
+      <c r="Q30" s="7" t="str">
         <f t="shared" si="4"/>
         <v>"Elemento espacial :   Banheiro.B03"</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>31</v>
       </c>
@@ -2903,34 +3038,40 @@
       <c r="G31" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="K31" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="L31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K31" s="18" t="str">
+      <c r="M31" s="18" t="str">
         <f>_xlfn.CONCAT("""",B31,"""")</f>
         <v>"Estacionamento.01"</v>
       </c>
-      <c r="L31" s="15" t="s">
+      <c r="N31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M31" s="17" t="s">
+      <c r="O31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="P31" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O31" s="7" t="str">
+      <c r="Q31" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Estacionamento.01"</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>32</v>
       </c>
@@ -2952,87 +3093,98 @@
       <c r="G32" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="K32" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="L32" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="18" t="str">
+      <c r="M32" s="18" t="str">
         <f t="shared" si="5"/>
         <v>"Estacionamento.02"</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="N32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M32" s="17" t="s">
+      <c r="O32" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="P32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O32" s="7" t="str">
+      <c r="Q32" s="7" t="str">
         <f t="shared" si="0"/>
         <v>"Elemento espacial :   Estacionamento.02"</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:O20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:Q20">
     <sortCondition ref="C1:C20"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1 A33:B1048576 P1:XFD1 D1:D7 F2:XFD7 H11:XFD30 D11:E32 F11:F1048576 H31:O32 P31:XFD1048576 D33:D45 H33:H1048576 J33:J1048576 L33:L1048576 N33:N1048576 E34:E45 D46:E56 D57:D1048576 D8:XFD10 A2:A32">
-    <cfRule type="cellIs" dxfId="0" priority="1461" operator="equal">
+  <conditionalFormatting sqref="A1:B1 A33:B1048576 R1:XFD1 D1:D7 F2:G7 A2:A32 D8:G10 D11:E32 F11:F1048576 J31:Q32 R31:XFD1048576 D33:D45 J33:J1048576 L33:L1048576 N33:N1048576 P33:P1048576 E34:E45 D46:E56 D57:D1048576 J2:XFD30 H33:H1048576 H2:I32">
+    <cfRule type="cellIs" dxfId="0" priority="1462" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="28" priority="3876"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="3877"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3877"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3878"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B10">
-    <cfRule type="duplicateValues" dxfId="26" priority="3894"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="3895"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="3896"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="3897"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="3898"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3895"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3896"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="3897"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3898"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3899"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B10">
-    <cfRule type="duplicateValues" dxfId="21" priority="3889"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="3890"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3890"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3891"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B32">
-    <cfRule type="duplicateValues" dxfId="19" priority="3846"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="3847"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="3848"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="3849"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="3850"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="3851"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="3852"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3847"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3848"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3849"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3850"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3851"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3852"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3853"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="12" priority="1460"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="11" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="208" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="cellIs" dxfId="4" priority="26" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1 N1">
+    <cfRule type="cellIs" dxfId="3" priority="27" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1">
+    <cfRule type="cellIs" dxfId="2" priority="206" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1 L1">
-    <cfRule type="cellIs" dxfId="2" priority="26" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1">
-    <cfRule type="cellIs" dxfId="1" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
